--- a/Dataset/Typed Dataset/4(c) completed.xlsx
+++ b/Dataset/Typed Dataset/4(c) completed.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raj\PycharmProjects\Essay-Marking-Assistant\Dataset\Typed Dataset\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FCAB1D-EE99-4514-BC43-FCBBE5F516C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -138,8 +144,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -445,31 +451,34 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C14" sqref="A14:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="91.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30">
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="45">
+      <c r="B1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -477,7 +486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="75">
+    <row r="3" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -485,7 +494,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="90">
+    <row r="4" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -493,7 +502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="45">
+    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -501,7 +510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="60">
+    <row r="6" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -509,7 +518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="45">
+    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -517,7 +526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="45">
+    <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -525,12 +534,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="30">
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -538,7 +547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="30">
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -546,7 +555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="45">
+    <row r="12" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -554,7 +563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="30">
+    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -562,7 +571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="60">
+    <row r="14" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -570,7 +579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -578,7 +587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -586,7 +595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="45">
+    <row r="17" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -594,7 +603,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="75">
+    <row r="18" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -602,7 +611,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="120">
+    <row r="19" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -610,7 +619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="60">
+    <row r="20" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -618,7 +627,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="45">
+    <row r="21" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -626,7 +635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="135">
+    <row r="22" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -634,7 +643,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -642,7 +651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="105">
+    <row r="24" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -650,7 +659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="45">
+    <row r="25" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -658,7 +667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="75">
+    <row r="26" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -666,7 +675,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="75">
+    <row r="27" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -674,7 +683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="45">
+    <row r="28" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -682,7 +691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -690,7 +699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="45">
+    <row r="30" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -698,7 +707,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="60">
+    <row r="31" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>

--- a/Dataset/Typed Dataset/4(c) completed.xlsx
+++ b/Dataset/Typed Dataset/4(c) completed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raj\PycharmProjects\Essay-Marking-Assistant\Dataset\Typed Dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raj\Desktop\UWA\Semester 4\Research\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FCAB1D-EE99-4514-BC43-FCBBE5F516C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D04E275-0D98-41B2-A469-24BA078A7906}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-2730" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>To control the congestion, we decided to use an open-loop control. What characteristics that need to be provided for this to work?</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>Open loop has the source decribe its traffic to the network and then reserve resources with other devices to avoid congestion. Network must provide traffic descriptors to source to accurately describe the sources traffic. These descriptors then enable the source to negotiate bandwidth and buffer reservations with elements along the network path to the destination.</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
 </sst>
 </file>
@@ -461,8 +464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C14" sqref="A14:C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,6 +538,9 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="B9">
         <v>0</v>
       </c>
